--- a/PZModCheck.xlsx
+++ b/PZModCheck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MININT-9CODTI9-local\Desktop\pz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB845BF-EFA5-46B9-B365-2B105C245363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9BC406-9BD6-4C45-9ABB-FF9170238E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{531A7734-330F-4514-8E57-897A85B40139}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="313">
   <si>
     <t>STT</t>
   </si>
@@ -600,9 +600,6 @@
     <t>Slowdown consumption of torchs, lighters, soaps, bulbs</t>
   </si>
   <si>
-    <t>Add abilitity to self extinguish fire</t>
-  </si>
-  <si>
     <t>Literatures</t>
   </si>
   <si>
@@ -876,9 +873,6 @@
     <t>Comfy Sleeping</t>
   </si>
   <si>
-    <t>More factors may affect sleep comfort, sleep comfort decides how endurance and fatigue regen</t>
-  </si>
-  <si>
     <t>Sleepy Moodle</t>
   </si>
   <si>
@@ -939,9 +933,6 @@
     <t>Canteens and water bottles</t>
   </si>
   <si>
-    <t>Visual sound extended</t>
-  </si>
-  <si>
     <t>Show content of all near by containers</t>
   </si>
   <si>
@@ -954,9 +945,6 @@
     <t>Add more water container items</t>
   </si>
   <si>
-    <t>Add UI to show sound direction</t>
-  </si>
-  <si>
     <t>Darker Map</t>
   </si>
   <si>
@@ -979,6 +967,24 @@
   </si>
   <si>
     <t>Crosshair UI</t>
+  </si>
+  <si>
+    <t>Stop drop and roll</t>
+  </si>
+  <si>
+    <t>Warm up</t>
+  </si>
+  <si>
+    <t>Wandering zombies</t>
+  </si>
+  <si>
+    <t>Add ability to warm up</t>
+  </si>
+  <si>
+    <t>Add ability to self extinguish fire</t>
+  </si>
+  <si>
+    <t>Zombies move around more often</t>
   </si>
 </sst>
 </file>
@@ -2171,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E697D8-6A9F-491F-91DE-19AB678A183B}">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2298,7 +2304,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D6" s="2">
         <v>45413</v>
@@ -2319,7 +2325,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D7" s="2">
         <v>45413</v>
@@ -2382,7 +2388,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D10" s="2">
         <v>45413</v>
@@ -2487,7 +2493,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D15" s="2">
         <v>45413</v>
@@ -2571,7 +2577,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D19" s="2">
         <v>45413</v>
@@ -2657,7 +2663,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D23" s="2">
         <v>45413</v>
@@ -2718,7 +2724,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D26" s="2">
         <v>45413</v>
@@ -2737,7 +2743,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D27" s="2">
         <v>45413</v>
@@ -2756,7 +2762,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D28" s="2">
         <v>45413</v>
@@ -2775,7 +2781,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D29" s="2">
         <v>45413</v>
@@ -2901,7 +2907,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D35" s="2">
         <v>45413</v>
@@ -2920,7 +2926,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D36" s="2">
         <v>45413</v>
@@ -2941,7 +2947,7 @@
         <v>39</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D37" s="2">
         <v>45413</v>
@@ -2962,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D38" s="2">
         <v>45413</v>
@@ -2983,7 +2989,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D39" s="2">
         <v>45413</v>
@@ -3025,7 +3031,7 @@
         <v>44</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D41" s="2">
         <v>45413</v>
@@ -3033,7 +3039,9 @@
       <c r="E41" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3065,7 +3073,7 @@
         <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D43" s="2">
         <v>45413</v>
@@ -3084,7 +3092,7 @@
         <v>47</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D44" s="2">
         <v>45413</v>
@@ -3092,7 +3100,9 @@
       <c r="E44" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3103,7 +3113,7 @@
         <v>48</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D45" s="2">
         <v>45413</v>
@@ -3122,7 +3132,7 @@
         <v>49</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D46" s="2">
         <v>45413</v>
@@ -3206,7 +3216,7 @@
         <v>53</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D50" s="2">
         <v>45413</v>
@@ -3225,7 +3235,7 @@
         <v>54</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D51" s="2">
         <v>45413</v>
@@ -3246,7 +3256,7 @@
         <v>55</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D52" s="2">
         <v>45413</v>
@@ -3267,7 +3277,7 @@
         <v>56</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D53" s="2">
         <v>45413</v>
@@ -3288,7 +3298,7 @@
         <v>57</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D54" s="2">
         <v>45413</v>
@@ -3307,7 +3317,7 @@
         <v>58</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D55" s="2">
         <v>45413</v>
@@ -3328,7 +3338,7 @@
         <v>59</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D56" s="2">
         <v>45413</v>
@@ -3347,7 +3357,7 @@
         <v>60</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D57" s="2">
         <v>45413</v>
@@ -3389,7 +3399,7 @@
         <v>62</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D59" s="2">
         <v>45413</v>
@@ -3410,7 +3420,7 @@
         <v>63</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D60" s="2">
         <v>45413</v>
@@ -3431,7 +3441,7 @@
         <v>64</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D61" s="2">
         <v>45413</v>
@@ -3450,7 +3460,7 @@
         <v>65</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D62" s="2">
         <v>45413</v>
@@ -3492,7 +3502,7 @@
         <v>67</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D64" s="2">
         <v>45413</v>
@@ -3511,7 +3521,7 @@
         <v>68</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D65" s="2">
         <v>45413</v>
@@ -3530,7 +3540,7 @@
         <v>69</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D66" s="2">
         <v>45413</v>
@@ -3551,7 +3561,7 @@
         <v>70</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D67" s="2">
         <v>45413</v>
@@ -3593,7 +3603,7 @@
         <v>72</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="2">
         <v>45413</v>
@@ -3635,7 +3645,7 @@
         <v>74</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D71" s="2">
         <v>45413</v>
@@ -3698,7 +3708,7 @@
         <v>77</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D74" s="2">
         <v>45413</v>
@@ -3717,7 +3727,7 @@
         <v>78</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D75" s="2">
         <v>45413</v>
@@ -3820,7 +3830,7 @@
         <v>83</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D80" s="2">
         <v>45413</v>
@@ -3841,7 +3851,7 @@
         <v>84</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D81" s="2">
         <v>45413</v>
@@ -3860,7 +3870,7 @@
         <v>85</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D82" s="2">
         <v>45413</v>
@@ -3923,7 +3933,7 @@
         <v>88</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D85" s="2">
         <v>45413</v>
@@ -3942,7 +3952,7 @@
         <v>89</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D86" s="2">
         <v>45413</v>
@@ -3961,7 +3971,7 @@
         <v>90</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D87" s="2">
         <v>45413</v>
@@ -3980,7 +3990,7 @@
         <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D88" s="2">
         <v>45413</v>
@@ -4083,7 +4093,7 @@
         <v>96</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D93" s="2">
         <v>45413</v>
@@ -4102,7 +4112,7 @@
         <v>97</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D94" s="2">
         <v>45413</v>
@@ -4123,7 +4133,7 @@
         <v>98</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D95" s="2">
         <v>45413</v>
@@ -4165,7 +4175,7 @@
         <v>100</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D97" s="2">
         <v>45413</v>
@@ -4291,7 +4301,7 @@
         <v>107</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D103" s="2">
         <v>45413</v>
@@ -4310,7 +4320,7 @@
         <v>108</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D104" s="2">
         <v>45413</v>
@@ -4369,32 +4379,32 @@
       <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D107" s="2">
-        <v>45413</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F107" s="1"/>
-      <c r="G107" s="5" t="s">
-        <v>122</v>
-      </c>
+      <c r="B107" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D107" s="13">
+        <v>45415</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G107" s="5"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="5">
+      <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D108" s="13">
         <v>45415</v>
@@ -4408,14 +4418,14 @@
       <c r="G108" s="5"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="5">
+      <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D109" s="13">
         <v>45415</v>
@@ -4429,14 +4439,14 @@
       <c r="G109" s="5"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="5">
+      <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>266</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D110" s="13">
         <v>45415</v>
@@ -4444,20 +4454,18 @@
       <c r="E110" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F110" s="5" t="s">
-        <v>122</v>
-      </c>
+      <c r="F110" s="5"/>
       <c r="G110" s="5"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="5">
+      <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>267</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D111" s="13">
         <v>45415</v>
@@ -4465,18 +4473,20 @@
       <c r="E111" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F111" s="5"/>
+      <c r="F111" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="G111" s="5"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="5">
+      <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>268</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D112" s="13">
         <v>45415</v>
@@ -4484,20 +4494,18 @@
       <c r="E112" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F112" s="5" t="s">
-        <v>122</v>
-      </c>
+      <c r="F112" s="5"/>
       <c r="G112" s="5"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="5">
+      <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D113" s="13">
         <v>45415</v>
@@ -4505,18 +4513,20 @@
       <c r="E113" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F113" s="5"/>
+      <c r="F113" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="G113" s="5"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="5">
+      <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D114" s="13">
         <v>45415</v>
@@ -4530,11 +4540,11 @@
       <c r="G114" s="5"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="5">
+      <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>276</v>
@@ -4548,19 +4558,17 @@
       <c r="F115" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G115" s="5" t="s">
-        <v>122</v>
-      </c>
+      <c r="G115" s="5"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="5">
+      <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D116" s="13">
         <v>45415</v>
@@ -4568,20 +4576,18 @@
       <c r="E116" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F116" s="5" t="s">
-        <v>122</v>
-      </c>
+      <c r="F116" s="5"/>
       <c r="G116" s="5"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="5">
+      <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>279</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="D117" s="13">
         <v>45415</v>
@@ -4589,13 +4595,11 @@
       <c r="E117" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F117" s="5" t="s">
-        <v>122</v>
-      </c>
+      <c r="F117" s="5"/>
       <c r="G117" s="5"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="5">
+      <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
@@ -4614,7 +4618,7 @@
       <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="5">
+      <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -4633,14 +4637,14 @@
       <c r="G119" s="5"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="5">
+      <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>282</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D120" s="13">
         <v>45415</v>
@@ -4652,14 +4656,14 @@
       <c r="G120" s="5"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="5">
+      <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D121" s="13">
         <v>45415</v>
@@ -4671,52 +4675,56 @@
       <c r="G121" s="5"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="5">
+      <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D122" s="13">
-        <v>45415</v>
+        <v>45418</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F122" s="5"/>
+      <c r="F122" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="5">
+      <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="D123" s="13">
-        <v>45415</v>
+        <v>45418</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F123" s="5"/>
+      <c r="F123" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="G123" s="5"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="5">
+      <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>293</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D124" s="13">
         <v>45418</v>
@@ -4727,17 +4735,19 @@
       <c r="F124" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G124" s="5"/>
+      <c r="G124" s="5" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="5">
+      <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>294</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D125" s="13">
         <v>45418</v>
@@ -4749,14 +4759,14 @@
       <c r="G125" s="5"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="5">
+      <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D126" s="13">
         <v>45418</v>
@@ -4764,18 +4774,20 @@
       <c r="E126" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F126" s="5"/>
+      <c r="F126" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="G126" s="5"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="5">
+      <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D127" s="13">
         <v>45418</v>
@@ -4783,18 +4795,20 @@
       <c r="E127" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F127" s="5"/>
+      <c r="F127" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="G127" s="5"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="5">
+      <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D128" s="13">
         <v>45418</v>
@@ -4802,7 +4816,9 @@
       <c r="E128" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F128" s="5"/>
+      <c r="F128" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="G128" s="5"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -4810,10 +4826,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D129" s="13">
         <v>45418</v>
@@ -4822,17 +4838,19 @@
         <v>122</v>
       </c>
       <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
+      <c r="G129" s="5" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D130" s="13">
         <v>45418</v>
@@ -4840,9 +4858,7 @@
       <c r="E130" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F130" s="5" t="s">
-        <v>122</v>
-      </c>
+      <c r="F130" s="5"/>
       <c r="G130" s="5"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4850,10 +4866,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D131" s="13">
         <v>45418</v>
@@ -4861,10 +4877,10 @@
       <c r="E131" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F131" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4879,7 +4895,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4903,13 +4919,13 @@
         <v>182</v>
       </c>
       <c r="D1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4929,7 +4945,7 @@
         <v>83</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4966,6 +4982,9 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>308</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -5014,7 +5033,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5032,19 +5051,19 @@
         <v>181</v>
       </c>
       <c r="B1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" t="s">
         <v>200</v>
       </c>
-      <c r="C1" t="s">
-        <v>201</v>
-      </c>
       <c r="D1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5078,10 +5097,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5092,7 +5111,7 @@
         <v>54</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5103,7 +5122,7 @@
         <v>55</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5114,7 +5133,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5123,13 +5142,16 @@
         <v>91</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E8" s="5" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -5138,22 +5160,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -5187,7 +5209,7 @@
         <v>135</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5312,13 +5334,13 @@
         <v>174</v>
       </c>
       <c r="F1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5418,17 +5440,17 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E9" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E10" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E11" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5447,7 +5469,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5483,10 +5505,10 @@
         <v>123</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5512,10 +5534,10 @@
         <v>33</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5558,7 +5580,7 @@
         <v>45</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>101</v>
@@ -5574,14 +5596,14 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="1"/>
@@ -5678,14 +5700,12 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>297</v>
-      </c>
+      <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="7"/>
@@ -5698,7 +5718,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="11"/>
@@ -5838,16 +5858,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5866,7 +5886,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>88</v>
@@ -5898,16 +5918,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" t="s">
         <v>186</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>187</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>188</v>
-      </c>
-      <c r="D1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5948,19 +5968,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6009,17 +6029,17 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
